--- a/testdata/OtlobTest.xlsx
+++ b/testdata/OtlobTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\IdeaProjects\otlob\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4123FA0A-CEFA-4483-8EF9-7965498AB10C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84CA3464-ABB2-4876-9DFF-CEF77B07CE41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TCs" sheetId="1" r:id="rId1"/>
@@ -26,14 +26,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>Test Steps</t>
   </si>
   <si>
-    <t>Expected Result</t>
-  </si>
-  <si>
     <t>Validate  that the user can search for restaurants</t>
   </si>
   <si>
@@ -46,63 +43,16 @@
     <t>TC-0001</t>
   </si>
   <si>
-    <t>TC-0002</t>
-  </si>
-  <si>
     <t>TC-0003</t>
   </si>
   <si>
-    <t>TC-0004</t>
-  </si>
-  <si>
-    <t>TC-0005</t>
-  </si>
-  <si>
-    <t>Preconditions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Validate the the user select a specific restaurant </t>
-  </si>
-  <si>
     <t>Validate that the user can check restaurant's rating</t>
   </si>
   <si>
-    <t>Validate that the user can show restaurant's menu</t>
-  </si>
-  <si>
     <t>QA Engineer: Pierre Ihab Khouzam</t>
   </si>
   <si>
     <t>Module: All Restaurants</t>
-  </si>
-  <si>
-    <t>1- User selected his area
-2- User's area matches the restaurant's delivery areas</t>
-  </si>
-  <si>
-    <t>1- Go to Otlob Egypt website
-2- Click to navigate to All Restaurants 
-3- Select a specific restaurant
-4- Click to show menu
-5- Observe restaurant's menu</t>
-  </si>
-  <si>
-    <t>Validate that the user can check restaurant's reviews</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>1- Go to Otlob Egypt website
-2- Click to navigate to All Restaurants 
-3- Search for restaurants
-4- Compare results to search keyword</t>
-  </si>
-  <si>
-    <t>1- Go to Otlob Egypt website
-2- Click to navigate to All Restaurants 
-3- Select a specific restaurant
-4- Observe</t>
   </si>
   <si>
     <t>1- Go to Otlob Egypt website
@@ -111,40 +61,40 @@
 4- Check this restaurant's rating</t>
   </si>
   <si>
+    <t>Chicken Tikka</t>
+  </si>
+  <si>
+    <t>Daddy's Burger</t>
+  </si>
+  <si>
+    <t>Pizza Master</t>
+  </si>
+  <si>
+    <t>kfc</t>
+  </si>
+  <si>
+    <t>Cook Door</t>
+  </si>
+  <si>
+    <t>Search Keyword</t>
+  </si>
+  <si>
+    <t>KFC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Restaurant Name to replace variable xpath</t>
+  </si>
+  <si>
+    <t>chicken Tikka</t>
+  </si>
+  <si>
+    <t>PIZZA MASTER</t>
+  </si>
+  <si>
     <t>1- Go to Otlob Egypt website
 2- Click to navigate to All Restaurants 
-3- Select a specific restaurant
-4- Check this restaurant's reviews</t>
-  </si>
-  <si>
-    <t>Chicken Tikka</t>
-  </si>
-  <si>
-    <t>Daddy's Burger</t>
-  </si>
-  <si>
-    <t>Pizza Master</t>
-  </si>
-  <si>
-    <t>kfc</t>
-  </si>
-  <si>
-    <t>Cook Door</t>
-  </si>
-  <si>
-    <t>Search Keyword</t>
-  </si>
-  <si>
-    <t>KFC</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Restaurant Name to replace variable xpath</t>
-  </si>
-  <si>
-    <t>chicken Tikka</t>
-  </si>
-  <si>
-    <t>PIZZA MASTER</t>
+3- Search for restaurants
+4- Compare results with search keyword</t>
   </si>
 </sst>
 </file>
@@ -197,7 +147,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFFFF00"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -224,7 +173,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.249977111117893"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,7 +232,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -310,6 +259,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -593,135 +548,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.5703125" style="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="49.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="49.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="42.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="52.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="42.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.140625" style="1" collapsed="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
     <col min="7" max="7" width="9.140625" style="1" collapsed="1"/>
-    <col min="8" max="8" width="9.140625" style="1"/>
-    <col min="9" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="8" max="9" width="9.140625" style="1"/>
+    <col min="10" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="C2" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>11</v>
-      </c>
       <c r="C3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="9"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="1"/>
+      <c r="B7" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -733,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BBDE7A1-E87B-4BF7-9946-62D1ADBC6284}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,50 +646,50 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/OtlobTest.xlsx
+++ b/testdata/OtlobTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\IdeaProjects\otlob\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84CA3464-ABB2-4876-9DFF-CEF77B07CE41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FBBD221-365D-4962-93FF-6C6112963B13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,13 +43,7 @@
     <t>TC-0001</t>
   </si>
   <si>
-    <t>TC-0003</t>
-  </si>
-  <si>
     <t>Validate that the user can check restaurant's rating</t>
-  </si>
-  <si>
-    <t>QA Engineer: Pierre Ihab Khouzam</t>
   </si>
   <si>
     <t>Module: All Restaurants</t>
@@ -95,6 +89,12 @@
 2- Click to navigate to All Restaurants 
 3- Search for restaurants
 4- Compare results with search keyword</t>
+  </si>
+  <si>
+    <t>TC-0002</t>
+  </si>
+  <si>
+    <t>QA Engineer: Pierre Khouzam</t>
   </si>
 </sst>
 </file>
@@ -551,7 +551,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,29 +586,29 @@
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="C3" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" s="9"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B7" s="11"/>
     </row>
@@ -646,50 +646,50 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/OtlobTest.xlsx
+++ b/testdata/OtlobTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\IdeaProjects\otlob\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FBBD221-365D-4962-93FF-6C6112963B13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E009CD5-B6A2-45CF-BDE7-597B5E468AFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>Test Steps</t>
   </si>
@@ -49,12 +49,6 @@
     <t>Module: All Restaurants</t>
   </si>
   <si>
-    <t>1- Go to Otlob Egypt website
-2- Click to navigate to All Restaurants 
-3- Select a specific restaurant
-4- Check this restaurant's rating</t>
-  </si>
-  <si>
     <t>Chicken Tikka</t>
   </si>
   <si>
@@ -85,16 +79,44 @@
     <t>PIZZA MASTER</t>
   </si>
   <si>
-    <t>1- Go to Otlob Egypt website
-2- Click to navigate to All Restaurants 
-3- Search for restaurants
-4- Compare results with search keyword</t>
-  </si>
-  <si>
-    <t>TC-0002</t>
-  </si>
-  <si>
     <t>QA Engineer: Pierre Khouzam</t>
+  </si>
+  <si>
+    <t>TC-0003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- User is on Otlob Egypt website
+2- User navigated to All Restaurants </t>
+  </si>
+  <si>
+    <t>1- Select a specific restaurant
+2- Check this restaurant's rating</t>
+  </si>
+  <si>
+    <t>1- User should be able to select any available restaurant and should get redirected to its details page where the user should be able to check this restaurant's rating</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>1- Search for restaurants
+2- Compare results to search keyword</t>
+  </si>
+  <si>
+    <t>1- User should be able to search for a restaurant using search text field
+2- Live results should be displayed matching the user's keyword</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Preconditions</t>
+  </si>
+  <si>
+    <t>Expected Results</t>
+  </si>
+  <si>
+    <t>Priority</t>
   </si>
 </sst>
 </file>
@@ -232,7 +254,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -266,6 +288,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -550,7 +575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -559,15 +584,15 @@
     <col min="1" max="1" width="8.5703125" style="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="49.28515625" style="3" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="42.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.140625" style="1" collapsed="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="4" max="4" width="37.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="32.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="1" collapsed="1"/>
     <col min="8" max="9" width="9.140625" style="1"/>
     <col min="10" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
@@ -575,10 +600,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="E1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="189.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -586,29 +620,47 @@
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="189.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="9"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B7" s="11"/>
     </row>
@@ -646,50 +698,50 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
